--- a/medicine/Psychotrope/Brauerei_Aldersbach/Brauerei_Aldersbach.xlsx
+++ b/medicine/Psychotrope/Brauerei_Aldersbach/Brauerei_Aldersbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Aldersbach est une brasserie à Aldersbach, dans le Land de Bavière.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie d'Aldersbach a ses origines au haut Moyen Âge. En 1146, des moines d'Ebrach fondent l'abbaye d'Aldersbach. En peu de temps, le lieu devient un centre économique, culturel, spirituel et spirituel.
 Peu de temps après la fondation du monastère, les moines commencent à brasser de la bière. En 1268, la brasserie fait l'objet d'une lettre d'arbitrage du comte Albert von Hals. Ainsi, la brasserie d'Aldersbach est l'une des plus anciennes brasseries du monde. Néanmoins, la boisson principale jusqu’au XVIe siècle est le vin, également cultivé dans la région d'Aldersbach. Les changements climatiques et les catastrophes du phylloxera mettent fin à la viticulture, la bière devient la boisson principale et populaire de la Bavière. Jusque-là, les brasseries monastiques sont principalement responsables de la production de bière et de l'approvisionnement de la population. C'est qu'à partir de ce moment-là, des brasseries de châteaux sont créées dans de nombreux endroits.
@@ -548,7 +562,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bières
 Schwesterbier
